--- a/biology/Médecine/Antimoine_(maladie_professionnelle)/Antimoine_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Antimoine_(maladie_professionnelle)/Antimoine_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication à l'antimoine soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. 
@@ -514,9 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Dans l'Antiquité, l'antimoine était utilisé comme médicament et composant des premiers cosmétiques (le mascara).
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antimoine_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimoine_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans l'Antiquité, l'antimoine était utilisé comme médicament et composant des premiers cosmétiques (le mascara).
 Le 30 juin 1658, Louis XIV est victime d'une grave intoxication alimentaire lors de la prise de Bergues dans le Nord. Le lundi 8 juillet, on lui donne les derniers sacrements et on commence à préparer la succession mais Guénaut, le médecin d'Anne d'Autriche, lui donne un émétique à base d'antimoine et de vin qui guérit « miraculeusement » le roi.
 Ses composés ont été utilisés pour guérir des maladies cutanées et parasitaires.
 Composant d'alliages de plomb (dont il augmente la dureté) servant à la fabrication :
@@ -530,12 +583,46 @@
 pour la détection dans l'infrarouge
 pour les sondes à effet Hall (détection de champ magnétique)
 Les oxydes d'antimoine permettent de produire un verre blanc opaque.
-En pharmacie il existe des pommades stibiées censées atténuer la douleur.
-Données médicales
-L'antimoine et la plupart de ses composés sont toxiques.Vu la grande toxicité de l’antimoine, Santé Canada a émis une norme provisoire pour la concentration maximale acceptable pour l’eau potable qui est de 6 µg/L[2].
-Il existe deux fiches toxicologiques sur le site de l'INRS[3]:
-sur l'oxyde d'antimoine[4],
-sur l'hydrure d'antimoine[5].</t>
+En pharmacie il existe des pommades stibiées censées atténuer la douleur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antimoine_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimoine_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'antimoine et la plupart de ses composés sont toxiques.Vu la grande toxicité de l’antimoine, Santé Canada a émis une norme provisoire pour la concentration maximale acceptable pour l’eau potable qui est de 6 µg/L.
+Il existe deux fiches toxicologiques sur le site de l'INRS:
+sur l'oxyde d'antimoine,
+sur l'hydrure d'antimoine.</t>
         </is>
       </c>
     </row>
